--- a/document/02_結合テスト/01_テスト仕様書/テスト仕様書_CSVからTSVへ.xlsx
+++ b/document/02_結合テスト/01_テスト仕様書/テスト仕様書_CSVからTSVへ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="004" sheetId="7" r:id="rId6"/>
     <sheet name="005" sheetId="8" r:id="rId7"/>
     <sheet name="006" sheetId="11" r:id="rId8"/>
-    <sheet name="007" sheetId="12" r:id="rId9"/>
+    <sheet name="⇒006" sheetId="14" r:id="rId9"/>
+    <sheet name="007" sheetId="12" r:id="rId10"/>
+    <sheet name="⇒007" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>テスト仕様書</t>
     <rPh sb="3" eb="6">
@@ -938,14 +940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「指定されたファイルが見つかりません」とメニュー画面に表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「処理に失敗しました」とメニュー画面に表示され、メニュー画面に戻ること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>④ファイル名が抜けている</t>
     </r>
@@ -1012,12 +1006,90 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【項番006:確認内容】 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改修後</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Exeptionが出ないこと</t>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【項番007:確認内容】</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改修後</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・異常終了させメッセージを表示させる。</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・空のTSVファイルを出力しない。</t>
+    <rPh sb="1" eb="2">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1164,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1191,7 +1280,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,45 +1326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1294,8 +1344,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3818,16 +3910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>614578</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19266</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>166468</xdr:rowOff>
+      <xdr:rowOff>142655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>166468</xdr:rowOff>
+      <xdr:rowOff>142655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3836,7 +3928,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448516" y="10239156"/>
+          <a:off x="1400391" y="10215343"/>
           <a:ext cx="2466759" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3992,6 +4084,714 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="3661" t="11232" r="60556" b="62886"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1431131" y="2047876"/>
+          <a:ext cx="4626769" cy="1945481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="6104" r="6420" b="30145"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1443038" y="4802982"/>
+          <a:ext cx="4579144" cy="3452812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182484</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="33684" b="6181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478757" y="9798843"/>
+          <a:ext cx="6933327" cy="3257551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57366</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145037</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428966" y="10327262"/>
+          <a:ext cx="2452471" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ドーナツ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1328737" y="7781925"/>
+          <a:ext cx="466726" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8942"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>483395</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ドーナツ 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1383507" y="3336131"/>
+          <a:ext cx="471488" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8942"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>492114</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196623</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1172471" y="10848075"/>
+          <a:ext cx="2425938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1364456" y="11418093"/>
+          <a:ext cx="1264443" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741569" y="10560843"/>
+          <a:ext cx="3167062" cy="1100138"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -96952"/>
+            <a:gd name="adj2" fmla="val -17500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>誤ったパスを入力したところ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Exeption</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>が発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1077</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="50414" b="6859"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1488282" y="13501687"/>
+          <a:ext cx="6799545" cy="3107532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="下矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524376" y="12775406"/>
+          <a:ext cx="452437" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30956</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>137772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>137772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1391670" y="15064808"/>
+          <a:ext cx="4064794" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522855</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>260916</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>73138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形吹き出し 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7326426" y="14751843"/>
+          <a:ext cx="3139847" cy="1132795"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -96952"/>
+            <a:gd name="adj2" fmla="val -17500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Exception</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が消えメッセージを表示するようにした。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4644,6 +5444,922 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="3661" t="11232" r="60556" b="62886"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1431131" y="2047876"/>
+          <a:ext cx="4626769" cy="1945481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="6104" r="6420" b="30145"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1443038" y="4802982"/>
+          <a:ext cx="4579144" cy="3452812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ドーナツ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1328737" y="7781925"/>
+          <a:ext cx="466726" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8942"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>483395</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ドーナツ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1383507" y="3336131"/>
+          <a:ext cx="471488" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8942"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137682</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000876" y="9603582"/>
+          <a:ext cx="3423806" cy="2147626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="51317" r="34337" b="6634"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="9603583"/>
+          <a:ext cx="4555331" cy="2276474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>194833</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>11645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058027" y="12675394"/>
+          <a:ext cx="3423806" cy="2147626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628865</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>109318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>109318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314665" y="10291543"/>
+          <a:ext cx="1738097" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751343" y="9703593"/>
+          <a:ext cx="2362201" cy="1100138"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60758"/>
+            <a:gd name="adj2" fmla="val -23056"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>データが空の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ファイルを変換すると</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>497680</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116681</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形吹き出し 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10784680" y="12834936"/>
+          <a:ext cx="2362201" cy="1100138"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60758"/>
+            <a:gd name="adj2" fmla="val -23056"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>異常終了せずに、空の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>TSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ファイルが作られる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>631030</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="下矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7722393" y="11896726"/>
+          <a:ext cx="452437" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226220</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4036219" y="10313194"/>
+          <a:ext cx="2362201" cy="673893"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83258"/>
+            <a:gd name="adj2" fmla="val -47500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>正常終了する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>84366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238394</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="48831" r="16818" b="5956"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524001" y="16105416"/>
+          <a:ext cx="5572393" cy="3113312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551584</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476931</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="下矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6037984" y="14973300"/>
+          <a:ext cx="611147" cy="868137"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>46266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>46266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295401" y="16924566"/>
+          <a:ext cx="3314699" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形吹き出し 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="16573500"/>
+          <a:ext cx="3190874" cy="1071563"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -96952"/>
+            <a:gd name="adj2" fmla="val -17500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルが空であることのメッセージが表示されるようにした。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>空の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルは作られない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4998,11 +6714,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B3:R114"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18">
+      <c r="B3" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="10" spans="2:18" ht="18.75" customHeight="1">
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="J55" s="8"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="M99" s="7"/>
+    </row>
+    <row r="112" spans="3:13">
+      <c r="C112" s="6"/>
+    </row>
+    <row r="114" spans="13:13">
+      <c r="M114" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:R5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B3:R114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18">
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="C8" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="18.75" customHeight="1">
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="J55" s="8"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="M99" s="7"/>
+    </row>
+    <row r="112" spans="3:13">
+      <c r="C112" s="6"/>
+    </row>
+    <row r="114" spans="13:13">
+      <c r="M114" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:R5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BT31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BI9" sqref="BI9:BL9"/>
     </sheetView>
   </sheetViews>
@@ -5016,191 +6934,191 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18" t="s">
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18" t="s">
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18" t="s">
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18" t="s">
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="25" t="s">
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="18" t="s">
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
     </row>
     <row r="3" spans="1:72" ht="54.6" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19" t="s">
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19" t="s">
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="24" t="s">
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="20">
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="31">
         <v>44116</v>
       </c>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="24" t="s">
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="27"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="26"/>
     </row>
     <row r="4" spans="1:72" ht="123" customHeight="1">
       <c r="A4" s="1">
@@ -5220,55 +7138,55 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="23" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="17" t="s">
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
       <c r="BA4" s="21" t="s">
         <v>21</v>
       </c>
@@ -5287,16 +7205,16 @@
       <c r="BJ4" s="21"/>
       <c r="BK4" s="21"/>
       <c r="BL4" s="21"/>
-      <c r="BM4" s="17" t="s">
+      <c r="BM4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="23"/>
+      <c r="BP4" s="23"/>
+      <c r="BQ4" s="23"/>
+      <c r="BR4" s="23"/>
+      <c r="BS4" s="23"/>
+      <c r="BT4" s="23"/>
     </row>
     <row r="5" spans="1:72" ht="123" customHeight="1">
       <c r="A5" s="1">
@@ -5316,55 +7234,55 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17" t="s">
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="23" t="s">
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="17" t="s">
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
       <c r="BA5" s="21" t="s">
         <v>21</v>
       </c>
@@ -5383,16 +7301,16 @@
       <c r="BJ5" s="21"/>
       <c r="BK5" s="21"/>
       <c r="BL5" s="21"/>
-      <c r="BM5" s="17" t="s">
+      <c r="BM5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN5" s="17"/>
-      <c r="BO5" s="17"/>
-      <c r="BP5" s="17"/>
-      <c r="BQ5" s="17"/>
-      <c r="BR5" s="17"/>
-      <c r="BS5" s="17"/>
-      <c r="BT5" s="17"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="23"/>
+      <c r="BS5" s="23"/>
+      <c r="BT5" s="23"/>
     </row>
     <row r="6" spans="1:72" ht="123" customHeight="1">
       <c r="A6" s="1">
@@ -5412,55 +7330,55 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="23" t="s">
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="17" t="s">
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
       <c r="BA6" s="21" t="s">
         <v>21</v>
       </c>
@@ -5479,16 +7397,16 @@
       <c r="BJ6" s="21"/>
       <c r="BK6" s="21"/>
       <c r="BL6" s="21"/>
-      <c r="BM6" s="17" t="s">
+      <c r="BM6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN6" s="17"/>
-      <c r="BO6" s="17"/>
-      <c r="BP6" s="17"/>
-      <c r="BQ6" s="17"/>
-      <c r="BR6" s="17"/>
-      <c r="BS6" s="17"/>
-      <c r="BT6" s="17"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="23"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="23"/>
+      <c r="BT6" s="23"/>
     </row>
     <row r="7" spans="1:72" ht="123" customHeight="1">
       <c r="A7" s="1">
@@ -5508,55 +7426,55 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="23" t="s">
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="17" t="s">
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
       <c r="BA7" s="21" t="s">
         <v>21</v>
       </c>
@@ -5575,16 +7493,16 @@
       <c r="BJ7" s="21"/>
       <c r="BK7" s="21"/>
       <c r="BL7" s="21"/>
-      <c r="BM7" s="17" t="s">
+      <c r="BM7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN7" s="17"/>
-      <c r="BO7" s="17"/>
-      <c r="BP7" s="17"/>
-      <c r="BQ7" s="17"/>
-      <c r="BR7" s="17"/>
-      <c r="BS7" s="17"/>
-      <c r="BT7" s="17"/>
+      <c r="BN7" s="23"/>
+      <c r="BO7" s="23"/>
+      <c r="BP7" s="23"/>
+      <c r="BQ7" s="23"/>
+      <c r="BR7" s="23"/>
+      <c r="BS7" s="23"/>
+      <c r="BT7" s="23"/>
     </row>
     <row r="8" spans="1:72" ht="123" customHeight="1">
       <c r="A8" s="1">
@@ -5604,55 +7522,55 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17" t="s">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="23" t="s">
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="17" t="s">
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
       <c r="BA8" s="21" t="s">
         <v>21</v>
       </c>
@@ -5666,21 +7584,21 @@
       <c r="BG8" s="21"/>
       <c r="BH8" s="21"/>
       <c r="BI8" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BJ8" s="21"/>
       <c r="BK8" s="21"/>
       <c r="BL8" s="21"/>
-      <c r="BM8" s="17" t="s">
+      <c r="BM8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN8" s="17"/>
-      <c r="BO8" s="17"/>
-      <c r="BP8" s="17"/>
-      <c r="BQ8" s="17"/>
-      <c r="BR8" s="17"/>
-      <c r="BS8" s="17"/>
-      <c r="BT8" s="17"/>
+      <c r="BN8" s="23"/>
+      <c r="BO8" s="23"/>
+      <c r="BP8" s="23"/>
+      <c r="BQ8" s="23"/>
+      <c r="BR8" s="23"/>
+      <c r="BS8" s="23"/>
+      <c r="BT8" s="23"/>
     </row>
     <row r="9" spans="1:72" ht="123" customHeight="1">
       <c r="A9" s="1">
@@ -5700,55 +7618,55 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="28" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="31" t="s">
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="28" t="s">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="30"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="17"/>
       <c r="BA9" s="21" t="s">
         <v>21</v>
       </c>
@@ -5762,21 +7680,21 @@
       <c r="BG9" s="21"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BJ9" s="14"/>
       <c r="BK9" s="14"/>
       <c r="BL9" s="14"/>
-      <c r="BM9" s="17" t="s">
+      <c r="BM9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN9" s="17"/>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17"/>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
+      <c r="BN9" s="23"/>
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23"/>
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
     </row>
     <row r="10" spans="1:72" ht="123" customHeight="1">
       <c r="A10" s="1">
@@ -5796,55 +7714,55 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="28" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31" t="s">
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="28" t="s">
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="29"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
-      <c r="AZ10" s="30"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="17"/>
       <c r="BA10" s="21" t="s">
         <v>21</v>
       </c>
@@ -5858,21 +7776,21 @@
       <c r="BG10" s="21"/>
       <c r="BH10" s="21"/>
       <c r="BI10" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BJ10" s="14"/>
       <c r="BK10" s="14"/>
       <c r="BL10" s="14"/>
-      <c r="BM10" s="17" t="s">
+      <c r="BM10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
+      <c r="BN10" s="23"/>
+      <c r="BO10" s="23"/>
+      <c r="BP10" s="23"/>
+      <c r="BQ10" s="23"/>
+      <c r="BR10" s="23"/>
+      <c r="BS10" s="23"/>
+      <c r="BT10" s="23"/>
     </row>
     <row r="11" spans="1:72" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -7430,66 +9348,222 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="L9:T9"/>
-    <mergeCell ref="U9:AC9"/>
-    <mergeCell ref="AD9:AR9"/>
-    <mergeCell ref="AS9:AZ9"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BM4:BT4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5:AC5"/>
-    <mergeCell ref="AD5:AR5"/>
-    <mergeCell ref="AS5:AZ5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="BM5:BT5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="U4:AC4"/>
-    <mergeCell ref="AD4:AR4"/>
-    <mergeCell ref="AS4:AZ4"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AD6:AR6"/>
-    <mergeCell ref="AS6:AZ6"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AS7:AZ7"/>
-    <mergeCell ref="L17:T17"/>
-    <mergeCell ref="L18:T18"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="U15:AC15"/>
-    <mergeCell ref="AD15:AR15"/>
-    <mergeCell ref="AS15:AZ15"/>
-    <mergeCell ref="U13:AC13"/>
-    <mergeCell ref="AD13:AR13"/>
-    <mergeCell ref="AS13:AZ13"/>
-    <mergeCell ref="U11:AC11"/>
-    <mergeCell ref="AD11:AR11"/>
-    <mergeCell ref="AS11:AZ11"/>
-    <mergeCell ref="U8:AC8"/>
-    <mergeCell ref="AD8:AR8"/>
-    <mergeCell ref="AS8:AZ8"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="L20:T20"/>
-    <mergeCell ref="L21:T21"/>
-    <mergeCell ref="L22:T22"/>
-    <mergeCell ref="L11:T11"/>
-    <mergeCell ref="L12:T12"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="L14:T14"/>
-    <mergeCell ref="L15:T15"/>
-    <mergeCell ref="L16:T16"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="BM25:BT25"/>
+    <mergeCell ref="BM26:BT26"/>
+    <mergeCell ref="BM27:BT27"/>
+    <mergeCell ref="BM28:BT28"/>
+    <mergeCell ref="BM29:BT29"/>
+    <mergeCell ref="BM30:BT30"/>
+    <mergeCell ref="BM31:BT31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="BM16:BT16"/>
+    <mergeCell ref="BM17:BT17"/>
+    <mergeCell ref="BM18:BT18"/>
+    <mergeCell ref="BM19:BT19"/>
+    <mergeCell ref="BM20:BT20"/>
+    <mergeCell ref="BM21:BT21"/>
+    <mergeCell ref="BM22:BT22"/>
+    <mergeCell ref="BM23:BT23"/>
+    <mergeCell ref="BM24:BT24"/>
+    <mergeCell ref="BM7:BT7"/>
+    <mergeCell ref="BM8:BT8"/>
+    <mergeCell ref="BM10:BT10"/>
+    <mergeCell ref="BM11:BT11"/>
+    <mergeCell ref="BM12:BT12"/>
+    <mergeCell ref="BM13:BT13"/>
+    <mergeCell ref="BM6:BT6"/>
+    <mergeCell ref="BM14:BT14"/>
+    <mergeCell ref="BM15:BT15"/>
+    <mergeCell ref="BM9:BT9"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="AD2:AR2"/>
+    <mergeCell ref="AS2:AZ2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AR3"/>
+    <mergeCell ref="AS3:AZ3"/>
+    <mergeCell ref="BE3:BH3"/>
+    <mergeCell ref="BM2:BT2"/>
+    <mergeCell ref="BM3:BT3"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="AD7:AR7"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI3:BL3"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BA6:BD6"/>
+    <mergeCell ref="BE6:BH6"/>
+    <mergeCell ref="BI6:BL6"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="U10:AC10"/>
+    <mergeCell ref="AD10:AR10"/>
+    <mergeCell ref="AS10:AZ10"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="U12:AC12"/>
+    <mergeCell ref="AD12:AR12"/>
+    <mergeCell ref="AS12:AZ12"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BA15:BD15"/>
+    <mergeCell ref="BE15:BH15"/>
+    <mergeCell ref="BI15:BL15"/>
+    <mergeCell ref="U14:AC14"/>
+    <mergeCell ref="AD14:AR14"/>
+    <mergeCell ref="AS14:AZ14"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BA17:BD17"/>
+    <mergeCell ref="BE17:BH17"/>
+    <mergeCell ref="BI17:BL17"/>
+    <mergeCell ref="U16:AC16"/>
+    <mergeCell ref="AD16:AR16"/>
+    <mergeCell ref="AS16:AZ16"/>
+    <mergeCell ref="BA16:BD16"/>
+    <mergeCell ref="BE16:BH16"/>
+    <mergeCell ref="BI16:BL16"/>
+    <mergeCell ref="BE20:BH20"/>
+    <mergeCell ref="BI20:BL20"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="AD19:AR19"/>
+    <mergeCell ref="AS19:AZ19"/>
+    <mergeCell ref="BA19:BD19"/>
+    <mergeCell ref="BE19:BH19"/>
+    <mergeCell ref="BI19:BL19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="AD18:AR18"/>
+    <mergeCell ref="AS18:AZ18"/>
+    <mergeCell ref="BA18:BD18"/>
+    <mergeCell ref="BE18:BH18"/>
+    <mergeCell ref="BI18:BL18"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BI23:BL23"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="AD22:AR22"/>
+    <mergeCell ref="AS22:AZ22"/>
+    <mergeCell ref="BA22:BD22"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BI22:BL22"/>
+    <mergeCell ref="U21:AC21"/>
+    <mergeCell ref="AD21:AR21"/>
+    <mergeCell ref="AS21:AZ21"/>
+    <mergeCell ref="BA21:BD21"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BI21:BL21"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AR24"/>
+    <mergeCell ref="AS24:AZ24"/>
+    <mergeCell ref="BA24:BD24"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="U23:AC23"/>
+    <mergeCell ref="AD23:AR23"/>
+    <mergeCell ref="AS23:AZ23"/>
+    <mergeCell ref="BA23:BD23"/>
+    <mergeCell ref="U20:AC20"/>
+    <mergeCell ref="AD20:AR20"/>
+    <mergeCell ref="AS20:AZ20"/>
+    <mergeCell ref="BA20:BD20"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="AD17:AR17"/>
+    <mergeCell ref="AS17:AZ17"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BI24:BL24"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="U25:AC25"/>
+    <mergeCell ref="AD25:AR25"/>
+    <mergeCell ref="AS25:AZ25"/>
+    <mergeCell ref="BA25:BD25"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BI25:BL25"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="BI26:BL26"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="AD27:AR27"/>
+    <mergeCell ref="AS27:AZ27"/>
+    <mergeCell ref="BA27:BD27"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BI27:BL27"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="AD26:AR26"/>
+    <mergeCell ref="AS26:AZ26"/>
+    <mergeCell ref="BA26:BD26"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="L26:T26"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="AS29:AZ29"/>
+    <mergeCell ref="BA29:BD29"/>
+    <mergeCell ref="BE29:BH29"/>
+    <mergeCell ref="BI29:BL29"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="U28:AC28"/>
+    <mergeCell ref="AD28:AR28"/>
+    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="BA28:BD28"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="L28:T28"/>
+    <mergeCell ref="L29:T29"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="L8:T8"/>
@@ -7514,222 +9588,66 @@
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="U29:AC29"/>
     <mergeCell ref="AD29:AR29"/>
-    <mergeCell ref="AS29:AZ29"/>
-    <mergeCell ref="BA29:BD29"/>
-    <mergeCell ref="BE29:BH29"/>
-    <mergeCell ref="BI29:BL29"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="U28:AC28"/>
-    <mergeCell ref="AD28:AR28"/>
-    <mergeCell ref="AS28:AZ28"/>
-    <mergeCell ref="BA28:BD28"/>
-    <mergeCell ref="BE28:BH28"/>
-    <mergeCell ref="L28:T28"/>
-    <mergeCell ref="L29:T29"/>
-    <mergeCell ref="BI26:BL26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="AD27:AR27"/>
-    <mergeCell ref="AS27:AZ27"/>
-    <mergeCell ref="BA27:BD27"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="BI27:BL27"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="AD26:AR26"/>
-    <mergeCell ref="AS26:AZ26"/>
-    <mergeCell ref="BA26:BD26"/>
-    <mergeCell ref="BE26:BH26"/>
-    <mergeCell ref="L26:T26"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="BE24:BH24"/>
-    <mergeCell ref="BI24:BL24"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="U25:AC25"/>
-    <mergeCell ref="AD25:AR25"/>
-    <mergeCell ref="AS25:AZ25"/>
-    <mergeCell ref="BA25:BD25"/>
-    <mergeCell ref="BE25:BH25"/>
-    <mergeCell ref="BI25:BL25"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AR24"/>
-    <mergeCell ref="AS24:AZ24"/>
-    <mergeCell ref="BA24:BD24"/>
-    <mergeCell ref="L23:T23"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="U23:AC23"/>
-    <mergeCell ref="AD23:AR23"/>
-    <mergeCell ref="AS23:AZ23"/>
-    <mergeCell ref="BA23:BD23"/>
-    <mergeCell ref="U20:AC20"/>
-    <mergeCell ref="AD20:AR20"/>
-    <mergeCell ref="AS20:AZ20"/>
-    <mergeCell ref="BA20:BD20"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="AD17:AR17"/>
-    <mergeCell ref="AS17:AZ17"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="BE23:BH23"/>
-    <mergeCell ref="BI23:BL23"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="AD22:AR22"/>
-    <mergeCell ref="AS22:AZ22"/>
-    <mergeCell ref="BA22:BD22"/>
-    <mergeCell ref="BE22:BH22"/>
-    <mergeCell ref="BI22:BL22"/>
-    <mergeCell ref="U21:AC21"/>
-    <mergeCell ref="AD21:AR21"/>
-    <mergeCell ref="AS21:AZ21"/>
-    <mergeCell ref="BA21:BD21"/>
-    <mergeCell ref="BE21:BH21"/>
-    <mergeCell ref="BI21:BL21"/>
-    <mergeCell ref="BE20:BH20"/>
-    <mergeCell ref="BI20:BL20"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="AD19:AR19"/>
-    <mergeCell ref="AS19:AZ19"/>
-    <mergeCell ref="BA19:BD19"/>
-    <mergeCell ref="BE19:BH19"/>
-    <mergeCell ref="BI19:BL19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="AD18:AR18"/>
-    <mergeCell ref="AS18:AZ18"/>
-    <mergeCell ref="BA18:BD18"/>
-    <mergeCell ref="BE18:BH18"/>
-    <mergeCell ref="BI18:BL18"/>
-    <mergeCell ref="BA17:BD17"/>
-    <mergeCell ref="BE17:BH17"/>
-    <mergeCell ref="BI17:BL17"/>
-    <mergeCell ref="U16:AC16"/>
-    <mergeCell ref="AD16:AR16"/>
-    <mergeCell ref="AS16:AZ16"/>
-    <mergeCell ref="BA16:BD16"/>
-    <mergeCell ref="BE16:BH16"/>
-    <mergeCell ref="BI16:BL16"/>
-    <mergeCell ref="BA15:BD15"/>
-    <mergeCell ref="BE15:BH15"/>
-    <mergeCell ref="BI15:BL15"/>
-    <mergeCell ref="U14:AC14"/>
-    <mergeCell ref="AD14:AR14"/>
-    <mergeCell ref="AS14:AZ14"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="U12:AC12"/>
-    <mergeCell ref="AD12:AR12"/>
-    <mergeCell ref="AS12:AZ12"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="U10:AC10"/>
-    <mergeCell ref="AD10:AR10"/>
-    <mergeCell ref="AS10:AZ10"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="AD7:AR7"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI3:BL3"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BA6:BD6"/>
-    <mergeCell ref="BE6:BH6"/>
-    <mergeCell ref="BI6:BL6"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="AD2:AR2"/>
-    <mergeCell ref="AS2:AZ2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AR3"/>
-    <mergeCell ref="AS3:AZ3"/>
-    <mergeCell ref="BE3:BH3"/>
-    <mergeCell ref="BM2:BT2"/>
-    <mergeCell ref="BM3:BT3"/>
-    <mergeCell ref="BM7:BT7"/>
-    <mergeCell ref="BM8:BT8"/>
-    <mergeCell ref="BM10:BT10"/>
-    <mergeCell ref="BM11:BT11"/>
-    <mergeCell ref="BM12:BT12"/>
-    <mergeCell ref="BM13:BT13"/>
-    <mergeCell ref="BM6:BT6"/>
-    <mergeCell ref="BM14:BT14"/>
-    <mergeCell ref="BM15:BT15"/>
-    <mergeCell ref="BM9:BT9"/>
-    <mergeCell ref="BM16:BT16"/>
-    <mergeCell ref="BM17:BT17"/>
-    <mergeCell ref="BM18:BT18"/>
-    <mergeCell ref="BM19:BT19"/>
-    <mergeCell ref="BM20:BT20"/>
-    <mergeCell ref="BM21:BT21"/>
-    <mergeCell ref="BM22:BT22"/>
-    <mergeCell ref="BM23:BT23"/>
-    <mergeCell ref="BM24:BT24"/>
-    <mergeCell ref="BM25:BT25"/>
-    <mergeCell ref="BM26:BT26"/>
-    <mergeCell ref="BM27:BT27"/>
-    <mergeCell ref="BM28:BT28"/>
-    <mergeCell ref="BM29:BT29"/>
-    <mergeCell ref="BM30:BT30"/>
-    <mergeCell ref="BM31:BT31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="L20:T20"/>
+    <mergeCell ref="L21:T21"/>
+    <mergeCell ref="L22:T22"/>
+    <mergeCell ref="L11:T11"/>
+    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="L15:T15"/>
+    <mergeCell ref="L16:T16"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AD6:AR6"/>
+    <mergeCell ref="AS6:AZ6"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AS7:AZ7"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="L18:T18"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="U15:AC15"/>
+    <mergeCell ref="AD15:AR15"/>
+    <mergeCell ref="AS15:AZ15"/>
+    <mergeCell ref="U13:AC13"/>
+    <mergeCell ref="AD13:AR13"/>
+    <mergeCell ref="AS13:AZ13"/>
+    <mergeCell ref="U11:AC11"/>
+    <mergeCell ref="AD11:AR11"/>
+    <mergeCell ref="AS11:AZ11"/>
+    <mergeCell ref="U8:AC8"/>
+    <mergeCell ref="AD8:AR8"/>
+    <mergeCell ref="AS8:AZ8"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="BM4:BT4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5:AC5"/>
+    <mergeCell ref="AD5:AR5"/>
+    <mergeCell ref="AS5:AZ5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="BM5:BT5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4:AC4"/>
+    <mergeCell ref="AD4:AR4"/>
+    <mergeCell ref="AS4:AZ4"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="L9:T9"/>
+    <mergeCell ref="U9:AC9"/>
+    <mergeCell ref="AD9:AR9"/>
+    <mergeCell ref="AS9:AZ9"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BI9:BL9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7741,7 +9659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
@@ -7840,7 +9758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
@@ -7939,7 +9857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -8142,7 +10060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -8241,8 +10159,8 @@
   </sheetPr>
   <dimension ref="B3:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R74" sqref="R74"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8262,7 +10180,7 @@
     </row>
     <row r="5" spans="2:18">
       <c r="C5" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -8274,9 +10192,7 @@
       <c r="R5" s="34"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="C6" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:18">
       <c r="C7" s="8"/>
@@ -8301,7 +10217,7 @@
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="3:10">
@@ -8333,12 +10249,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B3:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8348,17 +10264,17 @@
   <sheetData>
     <row r="3" spans="2:18">
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="C4" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="C5" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -8370,12 +10286,12 @@
       <c r="R5" s="34"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="C6" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="C7" s="8"/>
+      <c r="C7" s="35" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="2:18">
       <c r="C8" s="6"/>
@@ -8397,7 +10313,7 @@
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="3:10">
@@ -8405,11 +10321,6 @@
     </row>
     <row r="55" spans="3:10">
       <c r="J55" s="8"/>
-    </row>
-    <row r="71" spans="13:13">
-      <c r="M71" s="5" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="99" spans="3:13">
       <c r="M99" s="7"/>
